--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/eer_1/NCC with feature EER train3test4.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/eer_1/NCC with feature EER train3test4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\EER round 1\eer_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734F203-D533-4223-8593-224AE42C4F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B460108-E3A6-4183-9686-9E38E5DCEA75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8190" activeTab="5" xr2:uid="{A6DC93FF-53CB-4503-8EFE-FE9533FF1064}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="5" xr2:uid="{63983E34-93A0-4692-8050-F57CC822CF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F6DE52-5174-49B2-A00E-3BFE76E8E9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B701709C-3A45-4F75-87F7-4B353EA8E371}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8216BDFF-07DB-4931-B75A-31E98C382156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26B3F8-E40A-484C-B018-FC6D153987F7}">
   <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -406,1527 +406,1527 @@
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="B1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="E1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="G1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="J1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="M1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="N1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="O1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Q1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="R1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="S1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="T1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="U1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="V1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="W1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="X1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Y1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Z1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AA1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AB1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AD1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AE1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AF1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AG1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AH1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AI1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AJ1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AK1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AL1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AM1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AN1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AO1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AP1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AQ1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AR1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AS1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AT1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AU1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AV1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AW1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AX1">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AY1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AZ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BA1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BB1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BC1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BD1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BE1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BF1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BG1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BH1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BI1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BJ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BK1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BL1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BM1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BN1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BO1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BP1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BQ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BR1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BS1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BT1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BU1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BV1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BW1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BX1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BY1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BZ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CA1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CB1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CC1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CD1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CE1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CF1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CG1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CH1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CI1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CJ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CK1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CL1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CM1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CN1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CO1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CP1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CQ1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CR1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CS1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CT1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CU1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CV1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CW1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="M2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="O2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="R2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="T2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="U2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="V2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Z2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AA2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AB2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AD2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AE2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AF2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AG2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AH2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AI2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AJ2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AK2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AL2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AM2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AN2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AO2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AR2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AU2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AV2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AW2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AX2">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AY2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AZ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BA2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BB2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BC2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BD2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BE2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BF2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BG2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BH2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BI2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BJ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BK2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BL2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BM2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BN2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BO2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BP2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BQ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BR2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BS2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BT2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BU2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BV2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BW2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BX2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BY2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BZ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CA2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CB2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CC2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CD2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CE2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CF2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CG2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CH2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CI2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CJ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CK2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CL2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CM2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CN2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CO2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CP2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CQ2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CR2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CS2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CT2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CU2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CV2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CW2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="O3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="R3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="T3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="U3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Y3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Z3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AB3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AD3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AE3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AG3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AH3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AI3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AJ3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AK3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AL3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AM3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AN3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AO3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AR3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AU3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AV3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AW3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AX3">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AY3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AZ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BA3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BB3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BC3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BD3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BE3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BF3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BG3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BH3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BI3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BJ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BK3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BL3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BM3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BN3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BO3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BP3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BQ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BR3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BS3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BT3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BU3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BV3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BW3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BX3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BY3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BZ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CA3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CB3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CC3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CD3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CE3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CF3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CG3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CH3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CI3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CJ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CK3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CL3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CM3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CN3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CO3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CP3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CQ3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CR3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CS3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CT3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CU3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CV3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CW3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="M4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="O4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="T4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="U4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="V4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Z4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AD4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AE4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AG4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AH4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AI4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AJ4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AK4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AL4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AM4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AN4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AO4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AR4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AU4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AV4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AW4">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AX4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AY4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AZ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BA4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BB4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BC4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BD4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BE4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BF4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BG4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BH4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BI4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BJ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BK4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BL4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BM4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BN4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BO4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BP4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BQ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BR4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BS4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BT4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BU4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BV4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BW4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BX4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BY4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BZ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CA4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CB4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CC4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CD4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CE4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CF4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CG4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CH4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CI4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CJ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CK4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CL4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CM4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CN4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CO4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CP4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CQ4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CR4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CS4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CT4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CU4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CV4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CW4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="Z5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AA5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AD5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AE5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AF5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AG5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AH5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AI5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AJ5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AK5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AL5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AM5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AN5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AO5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AR5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AU5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AV5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AW5">
-        <v>0.5</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="AX5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AY5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="AZ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BA5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BB5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BC5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BD5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BE5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BF5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BG5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BH5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BI5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BJ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BK5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BL5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BM5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BN5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BO5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BP5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BQ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BR5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BS5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BT5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BU5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BV5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BW5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BX5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BY5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="BZ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CA5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CB5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CC5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CD5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CE5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CF5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CG5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CH5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CI5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CJ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CK5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CL5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CM5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CN5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CO5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CP5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CQ5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CR5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CS5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CT5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CU5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CV5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="CW5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C137C024-95AA-429A-BFD1-B6A49DA682F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35781BB6-B7A9-46E1-8AED-71AA642365C8}">
   <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -3475,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3492C34D-E2CD-4CE2-A14D-41B0FCECEF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE065E5F-91E2-4C53-B018-BBC648F87735}">
   <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -5015,7 +5015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB77D3-0FF4-49E4-AF38-F6CE28C0398C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C0139-5B0F-47C6-8EEB-CCCA25E88A13}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5058,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E043F-2500-44F4-A123-4DEAA5C67AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E8B54-D6BB-4CAE-B05E-CFB927C0D069}">
   <dimension ref="A1:CM10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
